--- a/3_Бюджетирование/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/3_Бюджетирование/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,11 +27,11 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Бюджетирование1 (22.04.2024 10:25:49): 
+          <t>Бюджетирование1 (25.04.2024 9:36:24): 
 Первая ячейка
-Бюджетирование1 (22.04.2024 10:25:50): 
+Бюджетирование1 (25.04.2024 9:36:25): 
 Первая ячейка 2
-Бюджетирование1 (22.04.2024 10:25:55): 
+Бюджетирование1 (25.04.2024 9:36:29): 
 Первая ячейка 3</t>
         </r>
       </text>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Бюджетирование1 (22.04.2024 10:25:50): 
+          <t>Бюджетирование1 (25.04.2024 9:36:24): 
 Последняя ячейка</t>
         </r>
       </text>
